--- a/World_country_conf_xls.xlsx
+++ b/World_country_conf_xls.xlsx
@@ -38979,9 +38979,10 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010002F6AC88A4A98A4583877E795B583186" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="94dfbf044c9a562bcd53eb1641db67aa">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="48bba4d1-6239-4317-af40-f4be253099f4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49716eab21d8e41425871cc0341a9773" ns2:_="">
-    <xsd:import namespace="48bba4d1-6239-4317-af40-f4be253099f4"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087FEDB81126C72489E896866974B8D20" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c26d39bc55fc011234c285d3e63a6473">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="583c1edc-5697-44bf-8915-bcc017c6315e" xmlns:ns3="683382e9-ecfe-41ed-b4c8-69ea71b11d74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="94bd697067cf947214e38e2284831c70" ns2:_="" ns3:_="">
+    <xsd:import namespace="583c1edc-5697-44bf-8915-bcc017c6315e"/>
+    <xsd:import namespace="683382e9-ecfe-41ed-b4c8-69ea71b11d74"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -38990,6 +38991,10 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -38997,7 +39002,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="48bba4d1-6239-4317-af40-f4be253099f4" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="583c1edc-5697-44bf-8915-bcc017c6315e" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -39008,6 +39013,46 @@
     <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="13" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="683382e9-ecfe-41ed-b4c8-69ea71b11d74" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -39129,5 +39174,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D11B8079-71BD-47B9-95A4-DFE428D5037B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADCE39F5-6D33-4142-BC62-18C26A63BD42}"/>
 </file>